--- a/Grafieken/data.xlsx
+++ b/Grafieken/data.xlsx
@@ -1993,7 +1993,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" baseline="0"/>
+              <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB" sz="1000" baseline="0"/>
@@ -2514,7 +2514,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Blad1!$L$1</c15:sqref>
@@ -2543,7 +2543,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Blad1!$A$2:$A$17</c15:sqref>
@@ -2606,7 +2606,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Blad1!$P$2:$P$17</c15:sqref>
@@ -2668,7 +2668,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-E59C-491B-BF1B-C28FD1DF2E15}"/>
                   </c:ext>
@@ -3020,7 +3020,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" baseline="0"/>
+              <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
@@ -3034,7 +3034,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" baseline="0"/>
+              <a:defRPr sz="1000"/>
             </a:pPr>
             <a:endParaRPr lang="en-GB" sz="1000" baseline="0"/>
           </a:p>
@@ -6501,15 +6501,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>85731</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6538,15 +6538,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>136526</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>117476</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6573,16 +6573,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1472024</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104325</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>700499</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>94800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6984,7 +6984,7 @@
   <dimension ref="A1:AE41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7050,7 +7050,7 @@
         <f>(B2-B1)/$B$2</f>
         <v>1</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="13">
         <v>942628</v>
       </c>
       <c r="F2" s="2">
@@ -7085,7 +7085,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="4">
-        <f>L2/$L$2</f>
+        <f t="shared" ref="P2:P8" si="0">L2/$L$2</f>
         <v>1</v>
       </c>
     </row>
@@ -7100,7 +7100,7 @@
         <f>B3/$B$2</f>
         <v>1.0214636140637776</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="13">
         <v>962542</v>
       </c>
       <c r="F3" s="2">
@@ -7123,19 +7123,19 @@
         <v>3.9</v>
       </c>
       <c r="M3" s="11">
-        <f>H3/$H$2</f>
+        <f t="shared" ref="M3:M18" si="1">H3/$H$2</f>
         <v>1.1881188118811881</v>
       </c>
       <c r="N3" s="8">
-        <f>I3/$I$2</f>
+        <f t="shared" ref="N3:N17" si="2">I3/$I$2</f>
         <v>1.0746284846512637</v>
       </c>
       <c r="O3" s="8">
-        <f>J3/$J$2</f>
+        <f t="shared" ref="O3:O17" si="3">J3/$J$2</f>
         <v>1.1606102159753171</v>
       </c>
       <c r="P3" s="4">
-        <f>L3/$L$2</f>
+        <f t="shared" si="0"/>
         <v>1.1818181818181819</v>
       </c>
     </row>
@@ -7147,14 +7147,14 @@
         <v>5104</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D18" si="0">B4/$B$2</f>
+        <f t="shared" ref="D4:D18" si="4">B4/$B$2</f>
         <v>1.0433360588716272</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="13">
         <v>974143</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F17" si="1">E4/$E$2</f>
+        <f t="shared" ref="F4:F17" si="5">E4/$E$2</f>
         <v>1.0334331252625637</v>
       </c>
       <c r="H4" s="10">
@@ -7173,19 +7173,19 @@
         <v>4.8</v>
       </c>
       <c r="M4" s="11">
-        <f>H4/$H$2</f>
+        <f t="shared" si="1"/>
         <v>1.0891089108910892</v>
       </c>
       <c r="N4" s="8">
-        <f>I4/$I$2</f>
+        <f t="shared" si="2"/>
         <v>1.0742759518385943</v>
       </c>
       <c r="O4" s="8">
-        <f>J4/$J$2</f>
+        <f t="shared" si="3"/>
         <v>1.4994857730545081</v>
       </c>
       <c r="P4" s="4">
-        <f>L4/$L$2</f>
+        <f t="shared" si="0"/>
         <v>1.4545454545454546</v>
       </c>
     </row>
@@ -7197,14 +7197,14 @@
         <v>5136</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0498773507767785</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="13">
         <v>999399</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0602263034834527</v>
       </c>
       <c r="H5" s="10">
@@ -7223,19 +7223,19 @@
         <v>5.7</v>
       </c>
       <c r="M5" s="11">
-        <f>H5/$H$2</f>
+        <f t="shared" si="1"/>
         <v>1.1485148514851484</v>
       </c>
       <c r="N5" s="8">
-        <f>I5/$I$2</f>
+        <f t="shared" si="2"/>
         <v>1.1072242108688577</v>
       </c>
       <c r="O5" s="8">
-        <f>J5/$J$2</f>
+        <f t="shared" si="3"/>
         <v>1.6025025711347274</v>
       </c>
       <c r="P5" s="4">
-        <f>L5/$L$2</f>
+        <f t="shared" si="0"/>
         <v>1.7272727272727275</v>
       </c>
     </row>
@@ -7247,14 +7247,14 @@
         <v>5178</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0584627964022895</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="13">
         <v>995045</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0556073021382772</v>
       </c>
       <c r="H6" s="10">
@@ -7273,19 +7273,19 @@
         <v>5.9</v>
       </c>
       <c r="M6" s="11">
-        <f>H6/$H$2</f>
+        <f t="shared" si="1"/>
         <v>1.2871287128712872</v>
       </c>
       <c r="N6" s="8">
-        <f>I6/$I$2</f>
+        <f t="shared" si="2"/>
         <v>1.2478848031239831</v>
       </c>
       <c r="O6" s="8">
-        <f>J6/$J$2</f>
+        <f t="shared" si="3"/>
         <v>1.7281453548165924</v>
       </c>
       <c r="P6" s="4">
-        <f>L6/$L$2</f>
+        <f t="shared" si="0"/>
         <v>1.7878787878787881</v>
       </c>
     </row>
@@ -7297,14 +7297,14 @@
         <v>5204</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0637775960752249</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="13">
         <v>1004683</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0658319082395176</v>
       </c>
       <c r="H7" s="10">
@@ -7323,19 +7323,19 @@
         <v>5</v>
       </c>
       <c r="M7" s="11">
-        <f>H7/$H$2</f>
+        <f t="shared" si="1"/>
         <v>1.3663366336633664</v>
       </c>
       <c r="N7" s="8">
-        <f>I7/$I$2</f>
+        <f t="shared" si="2"/>
         <v>1.341577177568066</v>
       </c>
       <c r="O7" s="8">
-        <f>J7/$J$2</f>
+        <f t="shared" si="3"/>
         <v>1.5733630442235174</v>
       </c>
       <c r="P7" s="4">
-        <f>L7/$L$2</f>
+        <f t="shared" si="0"/>
         <v>1.5151515151515151</v>
       </c>
     </row>
@@ -7347,14 +7347,14 @@
         <v>5012</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0245298446443172</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="13">
         <v>1022184</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0843980870502468</v>
       </c>
       <c r="H8" s="10">
@@ -7373,19 +7373,19 @@
         <v>4.2</v>
       </c>
       <c r="M8" s="11">
-        <f>H8/$H$2</f>
+        <f t="shared" si="1"/>
         <v>1.4554455445544554</v>
       </c>
       <c r="N8" s="8">
-        <f>I8/$I$2</f>
+        <f t="shared" si="2"/>
         <v>1.3629732075062371</v>
       </c>
       <c r="O8" s="8">
-        <f>J8/$J$2</f>
+        <f t="shared" si="3"/>
         <v>1.3630442235173124</v>
       </c>
       <c r="P8" s="4">
-        <f>L8/$L$2</f>
+        <f t="shared" si="0"/>
         <v>1.2727272727272729</v>
       </c>
     </row>
@@ -7397,14 +7397,14 @@
         <v>5050</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0322976287816843</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="13">
         <v>1012502</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0741268029381685</v>
       </c>
       <c r="H9" s="10">
@@ -7423,15 +7423,15 @@
         <v>3.7</v>
       </c>
       <c r="M9" s="11">
-        <f>H9/$H$2</f>
+        <f t="shared" si="1"/>
         <v>1.5544554455445545</v>
       </c>
       <c r="N9" s="8">
-        <f>I9/$I$2</f>
+        <f t="shared" si="2"/>
         <v>1.2608471634667535</v>
       </c>
       <c r="O9" s="8">
-        <f>J9/$J$2</f>
+        <f t="shared" si="3"/>
         <v>1.1736372985944463</v>
       </c>
       <c r="P9" s="4">
@@ -7447,14 +7447,14 @@
         <v>5076</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0376124284546198</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="13">
         <v>1015140</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0769253618606704</v>
       </c>
       <c r="H10" s="10">
@@ -7473,19 +7473,19 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="M10" s="11">
-        <f>H10/$H$2</f>
+        <f t="shared" si="1"/>
         <v>1.5445544554455446</v>
       </c>
       <c r="N10" s="8">
-        <f>I10/$I$2</f>
+        <f t="shared" si="2"/>
         <v>0.82400477275192541</v>
       </c>
       <c r="O10" s="8">
-        <f>J10/$J$2</f>
+        <f t="shared" si="3"/>
         <v>1.7948234487487145</v>
       </c>
       <c r="P10" s="4">
-        <f>L10/$L$2</f>
+        <f t="shared" ref="P10:P17" si="6">L10/$L$2</f>
         <v>1.3333333333333335</v>
       </c>
     </row>
@@ -7497,14 +7497,14 @@
         <v>5109</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.044358135731807</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="13">
         <v>1023076</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0853443776335945</v>
       </c>
       <c r="H11" s="10">
@@ -7523,19 +7523,19 @@
         <v>5</v>
       </c>
       <c r="M11" s="11">
-        <f>H11/$H$2</f>
+        <f t="shared" si="1"/>
         <v>1.3465346534653466</v>
       </c>
       <c r="N11" s="8">
-        <f>I11/$I$2</f>
+        <f t="shared" si="2"/>
         <v>0.81925913873522072</v>
       </c>
       <c r="O11" s="8">
-        <f>J11/$J$2</f>
+        <f t="shared" si="3"/>
         <v>1.6268426465546795</v>
       </c>
       <c r="P11" s="4">
-        <f>L11/$L$2</f>
+        <f t="shared" si="6"/>
         <v>1.5151515151515151</v>
       </c>
     </row>
@@ -7547,14 +7547,14 @@
         <v>5121</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0468111201962387</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="13">
         <v>1029564</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0922272625044025</v>
       </c>
       <c r="H12" s="10">
@@ -7573,19 +7573,19 @@
         <v>5</v>
       </c>
       <c r="M12" s="11">
-        <f>H12/$H$2</f>
+        <f t="shared" si="1"/>
         <v>1.3663366336633664</v>
       </c>
       <c r="N12" s="8">
-        <f>I12/$I$2</f>
+        <f t="shared" si="2"/>
         <v>0.78598546480095455</v>
       </c>
       <c r="O12" s="8">
-        <f>J12/$J$2</f>
+        <f t="shared" si="3"/>
         <v>1.6336990058279053</v>
       </c>
       <c r="P12" s="4">
-        <f>L12/$L$2</f>
+        <f t="shared" si="6"/>
         <v>1.5151515151515151</v>
       </c>
     </row>
@@ -7597,14 +7597,14 @@
         <v>5120</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0466067048242027</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="13">
         <v>1031221</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0939851139579984</v>
       </c>
       <c r="H13" s="9">
@@ -7623,19 +7623,19 @@
         <v>5.8</v>
       </c>
       <c r="M13" s="11">
-        <f>H13/$H$2</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N13" s="8">
-        <f>I13/$I$2</f>
+        <f t="shared" si="2"/>
         <v>0.72073977654843258</v>
       </c>
       <c r="O13" s="8">
-        <f>J13/$J$2</f>
+        <f t="shared" si="3"/>
         <v>1.9451491258141926</v>
       </c>
       <c r="P13" s="4">
-        <f>L13/$L$2</f>
+        <f t="shared" si="6"/>
         <v>1.7575757575757576</v>
       </c>
     </row>
@@ -7647,14 +7647,14 @@
         <v>5191</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0611201962387571</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="13">
         <v>1032112</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0949303436774633</v>
       </c>
       <c r="H14" s="9">
@@ -7673,19 +7673,19 @@
         <v>7.3</v>
       </c>
       <c r="M14" s="11">
-        <f>H14/$H$2</f>
+        <f t="shared" si="1"/>
         <v>0.87128712871287139</v>
       </c>
       <c r="N14" s="8">
-        <f>I14/$I$2</f>
+        <f t="shared" si="2"/>
         <v>0.63697255667642916</v>
       </c>
       <c r="O14" s="8">
-        <f>J14/$J$2</f>
+        <f t="shared" si="3"/>
         <v>2.1338704148097358</v>
       </c>
       <c r="P14" s="4">
-        <f>L14/$L$2</f>
+        <f t="shared" si="6"/>
         <v>2.2121212121212124</v>
       </c>
     </row>
@@ -7697,14 +7697,14 @@
         <v>5242</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.071545380212592</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="13">
         <v>1036991</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1001062985610441</v>
       </c>
       <c r="H15" s="9">
@@ -7723,19 +7723,19 @@
         <v>7.4</v>
       </c>
       <c r="M15" s="11">
-        <f>H15/$H$2</f>
+        <f t="shared" si="1"/>
         <v>0.79207920792079212</v>
       </c>
       <c r="N15" s="8">
-        <f>I15/$I$2</f>
+        <f t="shared" si="2"/>
         <v>0.92507321835340062</v>
       </c>
       <c r="O15" s="8">
-        <f>J15/$J$2</f>
+        <f t="shared" si="3"/>
         <v>1.6573534453205347</v>
       </c>
       <c r="P15" s="4">
-        <f>L15/$L$2</f>
+        <f t="shared" si="6"/>
         <v>2.2424242424242427</v>
       </c>
     </row>
@@ -7747,14 +7747,14 @@
         <v>5279</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0791087489779232</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="13">
         <v>1050889</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1148501848024883</v>
       </c>
       <c r="H16" s="9">
@@ -7773,19 +7773,19 @@
         <v>6.9</v>
       </c>
       <c r="M16" s="11">
-        <f>H16/$H$2</f>
+        <f t="shared" si="1"/>
         <v>0.79207920792079212</v>
       </c>
       <c r="N16" s="8">
-        <f>I16/$I$2</f>
+        <f t="shared" si="2"/>
         <v>1.1129732075062371</v>
       </c>
       <c r="O16" s="8">
-        <f>J16/$J$2</f>
+        <f t="shared" si="3"/>
         <v>1.2577991086732945</v>
       </c>
       <c r="P16" s="4">
-        <f>L16/$L$2</f>
+        <f t="shared" si="6"/>
         <v>2.0909090909090913</v>
       </c>
     </row>
@@ -7797,14 +7797,14 @@
         <v>5340</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0915780866721176</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="13">
         <v>1074871</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1402918224368468</v>
       </c>
       <c r="H17" s="9">
@@ -7823,19 +7823,19 @@
         <v>6</v>
       </c>
       <c r="M17" s="11">
-        <f>H17/$H$2</f>
+        <f t="shared" si="1"/>
         <v>1.0099009900990099</v>
       </c>
       <c r="N17" s="8">
-        <f>I17/$I$2</f>
+        <f t="shared" si="2"/>
         <v>1.4202733485193622</v>
       </c>
       <c r="O17" s="8">
-        <f>J17/$J$2</f>
+        <f t="shared" si="3"/>
         <v>1.0202262598560166</v>
       </c>
       <c r="P17" s="4">
-        <f>L17/$L$2</f>
+        <f t="shared" si="6"/>
         <v>1.8181818181818183</v>
       </c>
     </row>
@@ -7847,7 +7847,7 @@
         <v>5357</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0950531479967294</v>
       </c>
       <c r="E18" s="3"/>
@@ -7856,7 +7856,7 @@
         <v>11.6</v>
       </c>
       <c r="M18" s="11">
-        <f>H18/$H$2</f>
+        <f t="shared" si="1"/>
         <v>1.1485148514851484</v>
       </c>
     </row>
@@ -7888,15 +7888,15 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H22">
-        <f t="shared" ref="H22:J30" si="2">H10/H$8</f>
+        <f t="shared" ref="H22:J30" si="7">H10/H$8</f>
         <v>1.0612244897959184</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:I29" si="3">L10/L$8</f>
+        <f t="shared" ref="I22:I29" si="8">L10/L$8</f>
         <v>1.0476190476190477</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.3167756539235413</v>
       </c>
       <c r="N22">
@@ -7908,15 +7908,15 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.92517006802721091</v>
       </c>
       <c r="I23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.1904761904761905</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.1935362173038229</v>
       </c>
       <c r="N23">
@@ -7926,11 +7926,11 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.93877551020408168</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.1904761904761905</v>
       </c>
       <c r="J24">
@@ -7947,15 +7947,15 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.68707482993197277</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.3809523809523809</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.4270623742454729</v>
       </c>
       <c r="N25" s="8">
@@ -7965,29 +7965,29 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.59863945578231303</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.7380952380952379</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.5655181086519114</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.54421768707482998</v>
       </c>
       <c r="I27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.7619047619047619</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.215920523138833</v>
       </c>
       <c r="P27" s="4"/>
@@ -8009,35 +8009,35 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.54421768707482998</v>
       </c>
       <c r="I28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.6428571428571428</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.92278672032193154</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.69387755102040816</v>
       </c>
       <c r="I29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.74849094567404428</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.78911564625850339</v>
       </c>
     </row>
